--- a/biology/Médecine/Nerf_pectoral_médial/Nerf_pectoral_médial.xlsx
+++ b/biology/Médecine/Nerf_pectoral_médial/Nerf_pectoral_médial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_pectoral_m%C3%A9dial</t>
+          <t>Nerf_pectoral_médial</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Le nerf pectoral médial (ou nerf du muscle petit pectoral) est un nerf moteur du thorax et du membre supérieur.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nerf_pectoral_m%C3%A9dial</t>
+          <t>Nerf_pectoral_médial</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf pectoral médial nait du faisceau médial du plexus brachial.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nerf_pectoral_m%C3%A9dial</t>
+          <t>Nerf_pectoral_médial</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il passe entre l'artère et la veine axillaire. Il se divise en deux branches. Une branche s'anastomose avec le nerf pectoral latéral pour former l'anse des pectoraux. La deuxième branche pénètre le muscle petit pectoral par sa face profonde et s'y ramifie.
 Deux ou trois branches traversent le muscle et se terminent dans le chef sterno-costal du muscle grand pectoral.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nerf_pectoral_m%C3%A9dial</t>
+          <t>Nerf_pectoral_médial</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf pectoral médial peut être utilisé comme nerf donneur lors de la reconstruction du plexus brachial ou du nerf axillaire.
 </t>
